--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H2">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I2">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J2">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N2">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O2">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P2">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q2">
-        <v>615.8700817081543</v>
+        <v>752.1780487793607</v>
       </c>
       <c r="R2">
-        <v>615.8700817081543</v>
+        <v>6769.602439014246</v>
       </c>
       <c r="S2">
-        <v>0.1379029770197776</v>
+        <v>0.1416043149525793</v>
       </c>
       <c r="T2">
-        <v>0.1379029770197776</v>
+        <v>0.1511450104554788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H3">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I3">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J3">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N3">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O3">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P3">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q3">
-        <v>6.861155404904384</v>
+        <v>7.372027923893665</v>
       </c>
       <c r="R3">
-        <v>6.861155404904384</v>
+        <v>66.34825131504299</v>
       </c>
       <c r="S3">
-        <v>0.001536320377030461</v>
+        <v>0.001387850876090193</v>
       </c>
       <c r="T3">
-        <v>0.001536320377030461</v>
+        <v>0.001481358355835024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H4">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I4">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J4">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N4">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O4">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P4">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q4">
-        <v>107.315745361769</v>
+        <v>134.9095303116747</v>
       </c>
       <c r="R4">
-        <v>107.315745361769</v>
+        <v>1214.185772805072</v>
       </c>
       <c r="S4">
-        <v>0.02402967964515818</v>
+        <v>0.02539793822933366</v>
       </c>
       <c r="T4">
-        <v>0.02402967964515818</v>
+        <v>0.02710914311125178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H5">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I5">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J5">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N5">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O5">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P5">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q5">
-        <v>123.4664319538609</v>
+        <v>130.7153376094843</v>
       </c>
       <c r="R5">
-        <v>123.4664319538609</v>
+        <v>1176.438038485359</v>
       </c>
       <c r="S5">
-        <v>0.02764607184882802</v>
+        <v>0.02460834355113668</v>
       </c>
       <c r="T5">
-        <v>0.02764607184882802</v>
+        <v>0.02626634890733476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H6">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I6">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J6">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N6">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O6">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P6">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q6">
-        <v>37.44280179529581</v>
+        <v>40.33349880590199</v>
       </c>
       <c r="R6">
-        <v>37.44280179529581</v>
+        <v>242.0009928354119</v>
       </c>
       <c r="S6">
-        <v>0.008384030965120999</v>
+        <v>0.007593145635290632</v>
       </c>
       <c r="T6">
-        <v>0.008384030965120999</v>
+        <v>0.005403159627446421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H7">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I7">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J7">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N7">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O7">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P7">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q7">
-        <v>711.406866404398</v>
+        <v>891.152400883634</v>
       </c>
       <c r="R7">
-        <v>711.406866404398</v>
+        <v>8020.371607952705</v>
       </c>
       <c r="S7">
-        <v>0.1592951625079383</v>
+        <v>0.1677674926172824</v>
       </c>
       <c r="T7">
-        <v>0.1592951625079383</v>
+        <v>0.1790709515753125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H8">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I8">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J8">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N8">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O8">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P8">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q8">
-        <v>7.92549144939573</v>
+        <v>8.734102775825777</v>
       </c>
       <c r="R8">
-        <v>7.92549144939573</v>
+        <v>78.60692498243199</v>
       </c>
       <c r="S8">
-        <v>0.001774641921531732</v>
+        <v>0.001644273775741389</v>
       </c>
       <c r="T8">
-        <v>0.001774641921531732</v>
+        <v>0.001755057938095517</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H9">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I9">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J9">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N9">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O9">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P9">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q9">
-        <v>123.9630896047432</v>
+        <v>159.8357623363698</v>
       </c>
       <c r="R9">
-        <v>123.9630896047432</v>
+        <v>1438.521861027328</v>
       </c>
       <c r="S9">
-        <v>0.02775728129161562</v>
+        <v>0.03009052666093434</v>
       </c>
       <c r="T9">
-        <v>0.02775728129161562</v>
+        <v>0.03211789816080703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H10">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I10">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J10">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N10">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O10">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P10">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q10">
-        <v>142.619149835648</v>
+        <v>154.8666397963129</v>
       </c>
       <c r="R10">
-        <v>142.619149835648</v>
+        <v>1393.799758166816</v>
       </c>
       <c r="S10">
-        <v>0.03193466597340831</v>
+        <v>0.02915504443788613</v>
       </c>
       <c r="T10">
-        <v>0.03193466597340831</v>
+        <v>0.031119387130752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H11">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I11">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J11">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N11">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O11">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P11">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q11">
-        <v>43.25111267089446</v>
+        <v>47.78561984791467</v>
       </c>
       <c r="R11">
-        <v>43.25111267089446</v>
+        <v>286.713719087488</v>
       </c>
       <c r="S11">
-        <v>0.009684602928252945</v>
+        <v>0.008996074764650863</v>
       </c>
       <c r="T11">
-        <v>0.009684602928252945</v>
+        <v>0.006401461305830813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H12">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I12">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J12">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N12">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O12">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P12">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q12">
-        <v>543.6369415791082</v>
+        <v>685.1840012310367</v>
       </c>
       <c r="R12">
-        <v>543.6369415791082</v>
+        <v>6166.656011079331</v>
       </c>
       <c r="S12">
-        <v>0.1217288432874581</v>
+        <v>0.1289920800909319</v>
       </c>
       <c r="T12">
-        <v>0.1217288432874581</v>
+        <v>0.1376830169373504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H13">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I13">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J13">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N13">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O13">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P13">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q13">
-        <v>6.056435684740296</v>
+        <v>6.715425421251665</v>
       </c>
       <c r="R13">
-        <v>6.056435684740296</v>
+        <v>60.43882879126499</v>
       </c>
       <c r="S13">
-        <v>0.001356131002074368</v>
+        <v>0.00126423952139345</v>
       </c>
       <c r="T13">
-        <v>0.001356131002074368</v>
+        <v>0.001349418594646872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H14">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I14">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J14">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N14">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O14">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P14">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q14">
-        <v>94.72907570041821</v>
+        <v>122.8935781005067</v>
       </c>
       <c r="R14">
-        <v>94.72907570041821</v>
+        <v>1106.04220290456</v>
       </c>
       <c r="S14">
-        <v>0.02121132676746908</v>
+        <v>0.02313582664002765</v>
       </c>
       <c r="T14">
-        <v>0.02121132676746908</v>
+        <v>0.02469462007972117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H15">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I15">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J15">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N15">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O15">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P15">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q15">
-        <v>108.9855075747761</v>
+        <v>119.0729484739383</v>
       </c>
       <c r="R15">
-        <v>108.9855075747761</v>
+        <v>1071.656536265445</v>
       </c>
       <c r="S15">
-        <v>0.02440356561060426</v>
+        <v>0.02241655858662499</v>
       </c>
       <c r="T15">
-        <v>0.02440356561060426</v>
+        <v>0.0239268908089836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H16">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I16">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J16">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N16">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O16">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P16">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q16">
-        <v>33.05127307969025</v>
+        <v>36.74112550920999</v>
       </c>
       <c r="R16">
-        <v>33.05127307969025</v>
+        <v>220.44675305526</v>
       </c>
       <c r="S16">
-        <v>0.007400698763189445</v>
+        <v>0.006916848898690137</v>
       </c>
       <c r="T16">
-        <v>0.007400698763189445</v>
+        <v>0.004921917807667511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H17">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I17">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J17">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N17">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O17">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P17">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q17">
-        <v>722.8255172383259</v>
+        <v>845.8742261685821</v>
       </c>
       <c r="R17">
-        <v>722.8255172383259</v>
+        <v>7612.868035517238</v>
       </c>
       <c r="S17">
-        <v>0.1618519776387864</v>
+        <v>0.1592434670581307</v>
       </c>
       <c r="T17">
-        <v>0.1618519776387864</v>
+        <v>0.1699726134865883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H18">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I18">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J18">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N18">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O18">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P18">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q18">
-        <v>8.052701944292032</v>
+        <v>8.290335546930999</v>
       </c>
       <c r="R18">
-        <v>8.052701944292032</v>
+        <v>74.61301992237898</v>
       </c>
       <c r="S18">
-        <v>0.001803126347834278</v>
+        <v>0.001560730584673762</v>
       </c>
       <c r="T18">
-        <v>0.001803126347834278</v>
+        <v>0.001665885962710238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H19">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I19">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J19">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N19">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O19">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P19">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q19">
-        <v>125.9527966252077</v>
+        <v>151.714736611024</v>
       </c>
       <c r="R19">
-        <v>125.9527966252077</v>
+        <v>1365.432629499216</v>
       </c>
       <c r="S19">
-        <v>0.02820280792080042</v>
+        <v>0.02856167018019012</v>
       </c>
       <c r="T19">
-        <v>0.02820280792080042</v>
+        <v>0.03048603384336447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H20">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I20">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J20">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N20">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O20">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P20">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q20">
-        <v>144.9083015870723</v>
+        <v>146.998088056703</v>
       </c>
       <c r="R20">
-        <v>144.9083015870723</v>
+        <v>1322.982792510327</v>
       </c>
       <c r="S20">
-        <v>0.03244724297746716</v>
+        <v>0.02767371846650933</v>
       </c>
       <c r="T20">
-        <v>0.03244724297746716</v>
+        <v>0.02953825572591666</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H21">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I21">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J21">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N21">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O21">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P21">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q21">
-        <v>43.9453277215081</v>
+        <v>45.357701074206</v>
       </c>
       <c r="R21">
-        <v>43.9453277215081</v>
+        <v>272.146206445236</v>
       </c>
       <c r="S21">
-        <v>0.00984004857338971</v>
+        <v>0.008538997114924911</v>
       </c>
       <c r="T21">
-        <v>0.00984004857338971</v>
+        <v>0.006076212242764103</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H22">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I22">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J22">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>83.609752499245</v>
+        <v>97.31877133333334</v>
       </c>
       <c r="N22">
-        <v>83.609752499245</v>
+        <v>291.956314</v>
       </c>
       <c r="O22">
-        <v>0.6912461807812629</v>
+        <v>0.7059334474701922</v>
       </c>
       <c r="P22">
-        <v>0.6912461807812629</v>
+        <v>0.7149546880603714</v>
       </c>
       <c r="Q22">
-        <v>493.3429102062912</v>
+        <v>575.4097896298354</v>
       </c>
       <c r="R22">
-        <v>493.3429102062912</v>
+        <v>3452.458737779012</v>
       </c>
       <c r="S22">
-        <v>0.1104672203273024</v>
+        <v>0.1083260927512677</v>
       </c>
       <c r="T22">
-        <v>0.1104672203273024</v>
+        <v>0.07708309560564136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H23">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I23">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J23">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.931461881817399</v>
+        <v>0.9538123333333332</v>
       </c>
       <c r="N23">
-        <v>0.931461881817399</v>
+        <v>2.861437</v>
       </c>
       <c r="O23">
-        <v>0.00770088953863868</v>
+        <v>0.006918788836773586</v>
       </c>
       <c r="P23">
-        <v>0.00770088953863868</v>
+        <v>0.007007205186661606</v>
       </c>
       <c r="Q23">
-        <v>5.496130556374673</v>
+        <v>5.639538462624333</v>
       </c>
       <c r="R23">
-        <v>5.496130556374673</v>
+        <v>33.83723077574599</v>
       </c>
       <c r="S23">
-        <v>0.001230669890167842</v>
+        <v>0.001061694078874791</v>
       </c>
       <c r="T23">
-        <v>0.001230669890167842</v>
+        <v>0.0007554843353739545</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H24">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I24">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J24">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.5690514533249</v>
+        <v>17.45494933333334</v>
       </c>
       <c r="N24">
-        <v>14.5690514533249</v>
+        <v>52.364848</v>
       </c>
       <c r="O24">
-        <v>0.120450077576865</v>
+        <v>0.1266151677572303</v>
       </c>
       <c r="P24">
-        <v>0.120450077576865</v>
+        <v>0.1282332039825957</v>
       </c>
       <c r="Q24">
-        <v>85.96530940566301</v>
+        <v>103.2046396217973</v>
       </c>
       <c r="R24">
-        <v>85.96530940566301</v>
+        <v>619.227837730784</v>
       </c>
       <c r="S24">
-        <v>0.0192489819518217</v>
+        <v>0.0194292060467445</v>
       </c>
       <c r="T24">
-        <v>0.0192489819518217</v>
+        <v>0.01382550878745126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H25">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I25">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J25">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.7616484778668</v>
+        <v>16.91229366666667</v>
       </c>
       <c r="N25">
-        <v>16.7616484778668</v>
+        <v>50.736881</v>
       </c>
       <c r="O25">
-        <v>0.1385774404012034</v>
+        <v>0.1226788378970111</v>
       </c>
       <c r="P25">
-        <v>0.1385774404012034</v>
+        <v>0.1242465711103312</v>
       </c>
       <c r="Q25">
-        <v>98.90282165349467</v>
+        <v>99.99611799004967</v>
       </c>
       <c r="R25">
-        <v>98.90282165349467</v>
+        <v>599.976707940298</v>
       </c>
       <c r="S25">
-        <v>0.02214589399089567</v>
+        <v>0.018825172854854</v>
       </c>
       <c r="T25">
-        <v>0.02214589399089567</v>
+        <v>0.01339568853734415</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H26">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I26">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J26">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.08318797091117</v>
+        <v>5.218453999999999</v>
       </c>
       <c r="N26">
-        <v>5.08318797091117</v>
+        <v>10.436908</v>
       </c>
       <c r="O26">
-        <v>0.04202541170203</v>
+        <v>0.03785375803879289</v>
       </c>
       <c r="P26">
-        <v>0.04202541170203</v>
+        <v>0.02555833166004005</v>
       </c>
       <c r="Q26">
-        <v>29.99356739774554</v>
+        <v>30.854782455566</v>
       </c>
       <c r="R26">
-        <v>29.99356739774554</v>
+        <v>123.419129822264</v>
       </c>
       <c r="S26">
-        <v>0.006716030472076901</v>
+        <v>0.005808691625236342</v>
       </c>
       <c r="T26">
-        <v>0.006716030472076901</v>
+        <v>0.002755580676331196</v>
       </c>
     </row>
   </sheetData>
